--- a/fhir/StructureDefinition-ehealth-servicerequest.xlsx
+++ b/fhir/StructureDefinition-ehealth-servicerequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="505">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -423,7 +423,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -571,6 +571,19 @@
   </si>
   <si>
     <t>ServiceRequest status schedule</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:includeAsExtra</t>
+  </si>
+  <si>
+    <t>includeAsExtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-include-as-extra}
+</t>
+  </si>
+  <si>
+    <t>Used to mark that the action/service request may be performed as extra, meaning the action/service request may also be performed outside the resolved timing slots.</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -1884,7 +1897,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3929,43 +3942,41 @@
         <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
       </c>
@@ -4013,7 +4024,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4022,7 +4033,7 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>139</v>
@@ -4034,7 +4045,7 @@
         <v>19</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>19</v>
@@ -4045,14 +4056,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4065,24 +4076,26 @@
         <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
       </c>
@@ -4130,7 +4143,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4142,30 +4155,30 @@
         <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>194</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4173,10 +4186,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
@@ -4188,16 +4201,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4247,7 +4260,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4262,27 +4275,27 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>19</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4290,10 +4303,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -4305,16 +4318,16 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4364,7 +4377,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4379,13 +4392,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>19</v>
@@ -4396,21 +4409,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
@@ -4422,15 +4435,17 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4479,7 +4494,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4494,13 +4509,13 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>19</v>
@@ -4511,14 +4526,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4537,13 +4552,13 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4594,7 +4609,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4609,13 +4624,13 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>19</v>
@@ -4626,21 +4641,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -4652,20 +4667,16 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
       </c>
@@ -4713,13 +4724,13 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>19</v>
@@ -4728,13 +4739,13 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>19</v>
@@ -4745,18 +4756,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -4765,24 +4776,26 @@
         <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>19</v>
       </c>
@@ -4806,13 +4819,13 @@
         <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>19</v>
@@ -4830,10 +4843,10 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>87</v>
@@ -4845,27 +4858,27 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>244</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4891,13 +4904,13 @@
         <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4923,31 +4936,31 @@
         <v>19</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
@@ -4962,27 +4975,27 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>19</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4990,35 +5003,33 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
       </c>
@@ -5042,13 +5053,13 @@
         <v>19</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>19</v>
@@ -5066,13 +5077,13 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>19</v>
@@ -5081,16 +5092,16 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>19</v>
@@ -5098,10 +5109,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5112,7 +5123,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
@@ -5124,49 +5135,51 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>19</v>
       </c>
@@ -5183,13 +5196,13 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>19</v>
@@ -5198,16 +5211,16 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>19</v>
@@ -5215,10 +5228,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5235,31 +5248,27 @@
         <v>19</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>19</v>
@@ -5280,13 +5289,13 @@
         <v>19</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>19</v>
@@ -5304,7 +5313,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5319,16 +5328,16 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>19</v>
@@ -5336,14 +5345,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5356,28 +5365,32 @@
         <v>19</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>19</v>
       </c>
@@ -5397,11 +5410,13 @@
         <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>19</v>
@@ -5419,7 +5434,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5434,38 +5449,38 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>294</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
@@ -5477,16 +5492,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5512,13 +5527,11 @@
         <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>19</v>
@@ -5536,53 +5549,53 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>302</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>19</v>
+        <v>297</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5594,18 +5607,18 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
       </c>
@@ -5629,13 +5642,13 @@
         <v>19</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>19</v>
@@ -5653,16 +5666,16 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
@@ -5671,24 +5684,24 @@
         <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>19</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5696,7 +5709,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
@@ -5711,16 +5724,18 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>19</v>
       </c>
@@ -5768,10 +5783,10 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>87</v>
@@ -5783,35 +5798,35 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>314</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>317</v>
+        <v>19</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>318</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
@@ -5826,13 +5841,13 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5883,10 +5898,10 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>87</v>
@@ -5898,31 +5913,31 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>145</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5941,13 +5956,13 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5998,7 +6013,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6013,31 +6028,31 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>145</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6056,13 +6071,13 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6089,13 +6104,13 @@
         <v>19</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>342</v>
+        <v>19</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>19</v>
@@ -6113,7 +6128,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6128,31 +6143,31 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>19</v>
+        <v>337</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6171,13 +6186,13 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6204,13 +6219,13 @@
         <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -6228,7 +6243,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6243,31 +6258,31 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>351</v>
+        <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>352</v>
+        <v>19</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6286,17 +6301,15 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6345,7 +6358,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6360,31 +6373,31 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6403,16 +6416,16 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>255</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6438,13 +6451,13 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>372</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>373</v>
+        <v>19</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -6462,7 +6475,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6477,31 +6490,31 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>19</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6520,16 +6533,16 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6555,13 +6568,13 @@
         <v>19</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>19</v>
+        <v>376</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>19</v>
@@ -6579,13 +6592,13 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>19</v>
@@ -6594,16 +6607,16 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>19</v>
@@ -6611,21 +6624,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>19</v>
+        <v>383</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
@@ -6637,15 +6650,17 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>255</v>
+        <v>384</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6670,13 +6685,13 @@
         <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>390</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>19</v>
@@ -6694,7 +6709,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6709,16 +6724,16 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>19</v>
+        <v>388</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>19</v>
+        <v>389</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>19</v>
@@ -6726,10 +6741,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6752,13 +6767,13 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>394</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6785,13 +6800,13 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>19</v>
+        <v>394</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>19</v>
+        <v>395</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>19</v>
@@ -6809,7 +6824,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6833,7 +6848,7 @@
         <v>396</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>19</v>
@@ -6867,17 +6882,15 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N43" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6902,13 +6915,13 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>401</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>402</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>19</v>
@@ -6941,16 +6954,16 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>403</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>404</v>
+        <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>19</v>
@@ -6958,10 +6971,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6984,16 +6997,16 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>408</v>
+        <v>259</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7019,13 +7032,13 @@
         <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>19</v>
+        <v>405</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>19</v>
+        <v>406</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>19</v>
@@ -7043,7 +7056,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7058,16 +7071,16 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>19</v>
@@ -7075,10 +7088,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7098,18 +7111,20 @@
         <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -7158,7 +7173,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7173,16 +7188,16 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>19</v>
+        <v>410</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>19</v>
@@ -7190,14 +7205,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>423</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7216,17 +7231,15 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7275,7 +7288,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7290,13 +7303,13 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
@@ -7307,14 +7320,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>19</v>
+        <v>427</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7330,19 +7343,19 @@
         <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7392,7 +7405,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7407,13 +7420,13 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>19</v>
+        <v>432</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>19</v>
@@ -7424,14 +7437,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>439</v>
+        <v>19</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7450,20 +7463,18 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>255</v>
+        <v>436</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>19</v>
       </c>
@@ -7487,13 +7498,13 @@
         <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>444</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>445</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>19</v>
@@ -7511,7 +7522,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7529,28 +7540,28 @@
         <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>447</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>19</v>
+        <v>443</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7566,19 +7577,23 @@
         <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>449</v>
+        <v>259</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>48</v>
+        <v>444</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
       </c>
@@ -7602,13 +7617,13 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -7626,7 +7641,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7641,27 +7656,27 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7672,7 +7687,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>19</v>
@@ -7684,13 +7699,13 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>456</v>
+        <v>48</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7741,53 +7756,53 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>19</v>
+        <v>455</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>19</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
@@ -7799,17 +7814,15 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>459</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7846,40 +7859,40 @@
         <v>19</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>19</v>
@@ -7890,21 +7903,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
@@ -7913,19 +7926,19 @@
         <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>469</v>
+        <v>186</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7963,38 +7976,40 @@
         <v>19</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>471</v>
+        <v>137</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>19</v>
@@ -8005,14 +8020,12 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>19</v>
       </c>
@@ -8033,16 +8046,16 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8080,19 +8093,17 @@
         <v>19</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>19</v>
+        <v>475</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8113,7 +8124,7 @@
         <v>130</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>19</v>
@@ -8124,13 +8135,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>19</v>
@@ -8152,16 +8163,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8211,7 +8222,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8232,7 +8243,7 @@
         <v>130</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>19</v>
@@ -8243,12 +8254,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>19</v>
       </c>
@@ -8269,15 +8282,17 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>348</v>
+        <v>459</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -8326,7 +8341,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8347,7 +8362,7 @@
         <v>130</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>19</v>
@@ -8358,10 +8373,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8369,7 +8384,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>87</v>
@@ -8384,13 +8399,13 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8441,10 +8456,10 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>87</v>
@@ -8462,7 +8477,7 @@
         <v>130</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>19</v>
@@ -8473,10 +8488,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8484,7 +8499,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>87</v>
@@ -8499,13 +8514,13 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8556,10 +8571,10 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>87</v>
@@ -8574,7 +8589,7 @@
         <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>493</v>
@@ -8602,7 +8617,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -8611,20 +8626,18 @@
         <v>19</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>498</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8679,7 +8692,7 @@
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>19</v>
@@ -8688,18 +8701,135 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="L59" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AM58" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO58" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/fhir/StructureDefinition-ehealth-servicerequest.xlsx
+++ b/fhir/StructureDefinition-ehealth-servicerequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1222,7 +1222,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-practitioner|http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-organization|http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-patient|http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-device|http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-relatedperson|HealthcareService) &lt;&lt;referenced&gt;&gt;
+    <t xml:space="preserve">Reference(http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-practitioner|http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-organization|http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-patient|http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-device|http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-relatedperson|http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-careteam|HealthcareService) &lt;&lt;referenced&gt;&gt;
 </t>
   </si>
   <si>
@@ -6641,7 +6641,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>

--- a/fhir/StructureDefinition-ehealth-servicerequest.xlsx
+++ b/fhir/StructureDefinition-ehealth-servicerequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-servicerequest.xlsx
+++ b/fhir/StructureDefinition-ehealth-servicerequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1909,15 +1909,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.4453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.62109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1928,27 +1928,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="108.3203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.23046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="140.125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-servicerequest.xlsx
+++ b/fhir/StructureDefinition-ehealth-servicerequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-servicerequest.xlsx
+++ b/fhir/StructureDefinition-ehealth-servicerequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="524">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-episodeOfCare} &lt;&lt;referenced&gt;&gt;
+    <t xml:space="preserve">Extension {workflow-episodeOfCare}
 </t>
   </si>
   <si>
@@ -470,6 +470,84 @@
   </si>
   <si>
     <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:episodeOfCare.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:episodeOfCare.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:episodeOfCare.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/workflow-episodeOfCare</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:episodeOfCare.value[x]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-episodeofcare) &lt;&lt;referenced&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
   </si>
   <si>
     <t>ServiceRequest.extension:referenceRange</t>
@@ -488,10 +566,6 @@
     <t>Provides guide for interpretation. Must have at least a low or a high.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>ServiceRequest.extension:sharingPolicy</t>
   </si>
   <si>
@@ -1460,18 +1534,6 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.note.extension</t>
   </si>
   <si>
@@ -1479,12 +1541,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ServiceRequest.note.author[x]</t>
@@ -1900,7 +1956,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1909,7 +1965,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.69140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3126,11 +3182,9 @@
         <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s" s="2">
         <v>148</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3139,7 +3193,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3151,13 +3205,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3208,19 +3262,19 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3229,7 +3283,7 @@
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>79</v>
@@ -3240,23 +3294,21 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3268,13 +3320,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3313,19 +3365,19 @@
         <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3334,7 +3386,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>140</v>
@@ -3357,20 +3409,18 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>88</v>
@@ -3385,22 +3435,24 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>79</v>
@@ -3442,19 +3494,19 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3463,7 +3515,7 @@
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3474,20 +3526,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>88</v>
@@ -3502,13 +3552,13 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3559,19 +3609,19 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -3580,7 +3630,7 @@
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3591,13 +3641,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>79</v>
@@ -3607,7 +3657,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3619,13 +3669,13 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3708,23 +3758,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3736,13 +3786,13 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3825,13 +3875,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>79</v>
@@ -3841,7 +3891,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3853,13 +3903,13 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3942,20 +3992,20 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3970,13 +4020,13 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4059,46 +4109,44 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4146,7 +4194,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4155,7 +4203,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>140</v>
@@ -4167,7 +4215,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4178,12 +4226,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4201,20 +4251,18 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4263,7 +4311,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4272,44 +4320,46 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4318,7 +4368,7 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>201</v>
@@ -4327,11 +4377,9 @@
         <v>202</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4380,7 +4428,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4389,19 +4437,19 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4412,21 +4460,23 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4435,20 +4485,18 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4497,7 +4545,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4506,19 +4554,19 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4529,42 +4577,46 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4624,16 +4676,16 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4644,21 +4696,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4670,15 +4722,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4727,7 +4781,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4742,35 +4796,35 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4785,20 +4839,18 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4846,13 +4898,13 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
@@ -4861,13 +4913,13 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -4878,10 +4930,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4889,31 +4941,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4939,13 +4991,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4963,13 +5015,13 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
@@ -4978,60 +5030,58 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5056,13 +5106,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -5080,13 +5130,13 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
@@ -5095,16 +5145,16 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5112,21 +5162,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5138,20 +5188,16 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5175,13 +5221,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5199,7 +5245,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5214,16 +5260,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5231,14 +5277,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5257,22 +5303,24 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q29" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5292,13 +5340,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5316,7 +5364,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5331,16 +5379,16 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5348,10 +5396,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5359,7 +5407,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -5374,26 +5422,22 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>286</v>
-      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5413,13 +5457,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5437,10 +5481,10 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>88</v>
@@ -5452,35 +5496,35 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -5489,22 +5533,22 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5530,11 +5574,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5552,10 +5598,10 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>88</v>
@@ -5567,31 +5613,31 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5610,18 +5656,20 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5645,13 +5693,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5669,7 +5717,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5678,7 +5726,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
@@ -5687,24 +5735,24 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5727,22 +5775,22 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5762,13 +5810,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5786,7 +5834,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5801,16 +5849,16 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5818,10 +5866,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5829,7 +5877,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -5838,26 +5886,32 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5901,10 +5955,10 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>88</v>
@@ -5916,31 +5970,31 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5959,15 +6013,17 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5992,13 +6048,11 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6016,7 +6070,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6031,38 +6085,38 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6074,15 +6128,17 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6107,13 +6163,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6131,42 +6187,42 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6189,16 +6245,18 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6222,13 +6280,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6246,7 +6304,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6264,32 +6322,32 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
@@ -6304,13 +6362,13 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6361,10 +6419,10 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>88</v>
@@ -6376,31 +6434,31 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6419,17 +6477,15 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6478,7 +6534,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6493,31 +6549,31 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>369</v>
+        <v>146</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6536,17 +6592,15 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>260</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6571,13 +6625,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6595,7 +6649,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6610,38 +6664,38 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6653,17 +6707,15 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6688,13 +6740,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6712,13 +6764,13 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
@@ -6727,38 +6779,38 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6770,13 +6822,13 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6803,13 +6855,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6827,13 +6879,13 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
@@ -6842,38 +6894,38 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6885,15 +6937,17 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6942,13 +6996,13 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
@@ -6957,38 +7011,38 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7000,16 +7054,16 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7035,13 +7089,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -7059,13 +7113,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7074,16 +7128,16 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7091,14 +7145,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7117,16 +7171,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7176,7 +7230,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7191,16 +7245,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7208,10 +7262,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7231,16 +7285,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7267,13 +7321,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7291,7 +7345,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7306,16 +7360,16 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7323,14 +7377,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7346,20 +7400,18 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7408,7 +7460,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7423,16 +7475,16 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7440,10 +7492,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7466,16 +7518,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>437</v>
+        <v>284</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7501,13 +7553,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7525,7 +7577,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7540,16 +7592,16 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7557,14 +7609,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7583,20 +7635,18 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>260</v>
+        <v>437</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7620,13 +7670,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7644,7 +7694,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7659,27 +7709,27 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7702,13 +7752,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>48</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7759,7 +7809,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7774,38 +7824,38 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>308</v>
+        <v>449</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7817,15 +7867,17 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7874,28 +7926,28 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7906,14 +7958,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7929,19 +7981,19 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>461</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>187</v>
+        <v>464</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7979,19 +8031,19 @@
         <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8003,16 +8055,16 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8023,21 +8075,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8049,18 +8101,20 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8084,35 +8138,37 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -8124,28 +8180,26 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>131</v>
+        <v>465</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8154,7 +8208,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8163,20 +8217,18 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>472</v>
+        <v>48</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8231,7 +8283,7 @@
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
@@ -8240,31 +8292,29 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C55" t="s" s="2">
         <v>483</v>
       </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8282,20 +8332,18 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>472</v>
+        <v>149</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8344,7 +8392,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>477</v>
+        <v>151</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8356,16 +8404,16 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>478</v>
+        <v>153</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8376,21 +8424,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8399,18 +8447,20 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>353</v>
+        <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8447,40 +8497,40 @@
         <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>487</v>
+        <v>157</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>488</v>
+        <v>153</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8491,10 +8541,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8502,7 +8552,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>88</v>
@@ -8517,15 +8567,17 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8562,22 +8614,20 @@
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>88</v>
@@ -8595,7 +8645,7 @@
         <v>131</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8606,12 +8656,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8632,15 +8684,17 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8707,10 +8761,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8721,12 +8775,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8735,7 +8791,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8744,19 +8800,19 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8806,13 +8862,13 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
@@ -8821,18 +8877,480 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AN59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO59" t="s" s="2">
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/fhir/StructureDefinition-ehealth-servicerequest.xlsx
+++ b/fhir/StructureDefinition-ehealth-servicerequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-servicerequest.xlsx
+++ b/fhir/StructureDefinition-ehealth-servicerequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -365,7 +365,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -764,7 +764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1|MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -790,7 +790,7 @@
 priorrenewed order</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -925,7 +925,7 @@
     <t>Classification of the requested service.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category|4.0.1</t>
   </si>
   <si>
     <t>RF1-5</t>
@@ -1045,7 +1045,7 @@
     <t>Codified order entry details which are based on order context.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">prr-1
@@ -1109,7 +1109,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1179,7 +1179,7 @@
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
   </si>
   <si>
     <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
@@ -1227,7 +1227,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1274,7 +1274,7 @@
     <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/participant-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1339,7 +1339,7 @@
     <t>ServiceRequest.locationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1364,7 +1364,7 @@
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1407,7 +1407,7 @@
     <t>ServiceRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1433,7 +1433,7 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1458,7 +1458,7 @@
     <t>ServiceRequest.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1499,7 +1499,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>targetSiteCode</t>
@@ -1546,7 +1546,7 @@
     <t>ServiceRequest.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
